--- a/public/static/template/lnzc.xlsx
+++ b/public/static/template/lnzc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>支出项目</t>
   </si>
@@ -239,9 +239,51 @@
     </r>
   </si>
   <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>控股</t>
   </si>
   <si>
+    <t>营业外支出(捐赠等)</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>管理费用\工资</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>管理费用\评估咨询费</t>
+  </si>
+  <si>
+    <t>管理费用\折旧</t>
+  </si>
+  <si>
+    <t>管理费用\办公费</t>
+  </si>
+  <si>
+    <t>管理费用\业务招待费</t>
+  </si>
+  <si>
+    <t>管理费用\差旅费</t>
+  </si>
+  <si>
+    <t>其他业务成本</t>
+  </si>
+  <si>
+    <t>管理费用\广告设计费</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>城投</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -249,7 +291,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>营业外支出</t>
+      <t>管理费用</t>
     </r>
     <r>
       <rPr>
@@ -258,233 +300,12 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>捐赠等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>财务费用</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>\</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工资</t>
-    </r>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评估咨询费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>折旧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>办公费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务招待费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>差旅费</t>
-    </r>
-  </si>
-  <si>
-    <t>其他业务成本</t>
-  </si>
-  <si>
-    <t>城投</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -501,12 +322,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,10 +362,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -554,9 +385,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -568,13 +416,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -590,23 +431,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,18 +476,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,19 +506,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,44 +560,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -719,11 +567,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -743,61 +587,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,128 +771,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -948,6 +792,85 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,25 +899,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1029,110 +939,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,67 +1031,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1215,28 +1108,64 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,289 +1487,467 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2"/>
+    <col min="1" max="1" width="10.7142857142857" style="1"/>
+    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" ht="17.4" customHeight="1" spans="1:14">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23"/>
     </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.4" customHeight="1" spans="1:14">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9">
+        <f t="shared" ref="M2:M12" si="0">SUM(D2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(C2:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9">
+        <f>SUM(C13:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9">
+        <f>SUM(D14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" ht="17.4" customHeight="1" spans="1:14">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9">
+        <f>SUM(D15:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" ht="17.4" customHeight="1" spans="1:14">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16">
+        <f>SUM(D16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" ht="15.15" customHeight="1" spans="1:13">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="19">
+        <f>SUM(C14:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
+        <f>SUM(C17:L17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:13">
+      <c r="A18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
+        <f>SUM(C14:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <f>SUM(D13+D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" ref="E18:M18" si="1">E13+E17</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="12"/>
+    <row r="19" customHeight="1" spans="13:13">
+      <c r="M19" s="25">
+        <f>M18+M13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" ht="17.4" customHeight="1" spans="1:13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" ht="17.4" customHeight="1" spans="1:13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" ht="15.15" customHeight="1"/>
-    <row r="20" customHeight="1" spans="4:4">
-      <c r="D20" s="1"/>
+    <row r="22" customHeight="1" spans="4:4">
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/public/static/template/lnzc.xlsx
+++ b/public/static/template/lnzc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>支出项目</t>
   </si>
@@ -284,35 +284,6 @@
     <t>城投</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广告设计费</t>
-    </r>
-  </si>
-  <si>
     <t>所得税费用</t>
   </si>
 </sst>
@@ -323,11 +294,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,7 +387,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,8 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,8 +438,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,44 +514,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -506,28 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,41 +530,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -587,187 +552,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,35 +807,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,19 +834,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,17 +885,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,148 +909,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,7 +1455,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
@@ -1802,7 +1767,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -1823,7 +1788,7 @@
     <row r="15" ht="17.4" customHeight="1" spans="1:14">
       <c r="A15" s="10"/>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
